--- a/biology/Zoologie/Argopecten_irradians/Argopecten_irradians.xlsx
+++ b/biology/Zoologie/Argopecten_irradians/Argopecten_irradians.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Argopecten irradians est une espèce de pétoncles, un mollusque bivalve marin de la famille des Pectinidae.
 Valve droite et gauche du même spécimen:
@@ -514,10 +526,12 @@
           <t>Pêche et élevage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce était autrefois pêchée en nombre le long de la côte est des États-Unis, mais depuis les années 1950 sa pêche a fortement diminué, du fait d'un fort déclin de la population qui pourrait être liée à la diminution des herbiers marins qui constituaient son habitat ou au déclin du nombre de requins, les prédateurs des raies qui sont la principale menace pour les pétoncles.
-Ces animaux sont aujourd'hui élevés en aquaculture en Floride[2]. Ils ont été introduits en Chine dans les années 1980 et font également l'objet d'un important élevage dans ce pays[3].
+Ces animaux sont aujourd'hui élevés en aquaculture en Floride. Ils ont été introduits en Chine dans les années 1980 et font également l'objet d'un important élevage dans ce pays.
 </t>
         </is>
       </c>
@@ -546,16 +560,18 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (28 octobre 2013)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (28 octobre 2013) :
 sous-espèce Argopecten irradians amplicostatus (Dall, 1898)
 sous-espèce Argopecten irradians concentricus (Say, 1822)
 sous-espèce Argopecten irradians irradians (Lamarck, 1819)
-Selon NCBI  (28 octobre 2013)[5] :
+Selon NCBI  (28 octobre 2013) :
 sous-espèce Argopecten irradians concentricus
 sous-espèce Argopecten irradians irradians
-Selon World Register of Marine Species                               (28 octobre 2013)[6] :
+Selon World Register of Marine Species                               (28 octobre 2013) :
 sous-espèce Argopecten irradians amplicostatus (Dall, 1898)
 sous-espèce Argopecten irradians concentricus (Say, 1822)
 sous-espèce Argopecten irradians irradians (Lamarck, 1819)</t>
